--- a/TC양식_실습 template_3.xlsx
+++ b/TC양식_실습 template_3.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqua9\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\edu\WorkSpace\202507_HA_취준생\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D2BDA0B-0E9A-4DA2-80C4-8FCF2D5FFFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EE9E9B-2E8E-4421-85F9-8640E20AA859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="863" xr2:uid="{4AFE4723-4D7E-419E-8F12-73425F5D7441}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.삼각형" sheetId="3" r:id="rId1"/>
-    <sheet name="3-1.원격시동" sheetId="10" r:id="rId2"/>
-    <sheet name="3-2.RSPA 활성화" sheetId="11" r:id="rId3"/>
-    <sheet name="4.속도제한보조" sheetId="1" r:id="rId4"/>
-    <sheet name="5.PairWise" sheetId="6" r:id="rId5"/>
-    <sheet name="5-2. 고속도로 주행보조" sheetId="12" r:id="rId6"/>
-    <sheet name="6.구조기반TC-1" sheetId="7" r:id="rId7"/>
-    <sheet name="7.구조기반TC-2" sheetId="8" r:id="rId8"/>
+    <sheet name="template" sheetId="13" r:id="rId1"/>
+    <sheet name="1.삼각형" sheetId="3" r:id="rId2"/>
+    <sheet name="3-1.원격시동" sheetId="10" r:id="rId3"/>
+    <sheet name="3-2.RSPA 활성화" sheetId="11" r:id="rId4"/>
+    <sheet name="4.속도제한보조" sheetId="1" r:id="rId5"/>
+    <sheet name="5.PairWise" sheetId="6" r:id="rId6"/>
+    <sheet name="5-2. 고속도로 주행보조" sheetId="12" r:id="rId7"/>
+    <sheet name="6.구조기반TC-1" sheetId="7" r:id="rId8"/>
+    <sheet name="7.구조기반TC-2" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="102">
   <si>
     <t>테스트 케이스</t>
   </si>
@@ -279,12 +280,210 @@
     <t>[실습] 명세기반 테스트 케이스 작성 : [고속도로 주행 보조 시스템] 시뮬레이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>수행결과
+(pass/fail)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Basis ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 수행 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traceability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시) Software Verification" Test Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV-0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV-0002</t>
+  </si>
+  <si>
+    <t>SV-0003</t>
+  </si>
+  <si>
+    <t>SV-0004</t>
+  </si>
+  <si>
+    <t>SwRS-0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirement based Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault-Injection Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV-0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC 도출 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* TC 도출 기법 : 요구사항 분석 (Requirement Analysis) + 동등분할 / 경계값 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-to-back Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource Usage Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV-0006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Guessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue-00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Number of Testcase</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Executed Testcase</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TC </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총 개수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PASS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FAIL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">N/A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,8 +570,91 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +682,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,12 +885,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,15 +949,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -690,9 +997,79 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 11" xfId="1" xr:uid="{3411D9F3-DC99-45FE-B643-1B0E1A9FD02E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1003,11 +1380,456 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CE885B-A929-41D1-AE6E-5FA513DEE74F}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A2:N31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="9" width="15" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="17" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38"/>
+    </row>
+    <row r="3" spans="1:14" ht="34">
+      <c r="A3" s="20"/>
+      <c r="B3" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="41"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="1:14" ht="34">
+      <c r="A15" s="20"/>
+      <c r="B15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="28">
+      <c r="A16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="46"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="46"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="47"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="21">
+      <c r="A27" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="21">
+      <c r="A28" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="21">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="21">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="18.5">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:B31"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:N14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E7DFD2-A270-469F-B3F6-2A9D4B4C413D}">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
@@ -1159,7 +1981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D406AD5-F693-41AC-82E0-A64733CB46D8}">
   <dimension ref="A2:K36"/>
   <sheetViews>
@@ -1184,16 +2006,16 @@
       <c r="B2" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="22" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +2025,7 @@
       <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1705,7 +2527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EE9A81-941A-48C4-B075-0777CED5D156}">
   <dimension ref="A2:K36"/>
   <sheetViews>
@@ -1730,16 +2552,16 @@
       <c r="B2" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="22" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +2571,7 @@
       <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2251,7 +3073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF53F50F-D8EB-41EC-BC29-482554DAA68E}">
   <dimension ref="A2:K36"/>
   <sheetViews>
@@ -2275,16 +3097,16 @@
       <c r="B2" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="22" t="s">
         <v>1</v>
       </c>
@@ -2294,7 +3116,7 @@
       <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2796,7 +3618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CE742A-F973-4314-B712-D904933A3BC8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2820,7 +3642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23270726-BDB6-4D7F-B737-2C8D4A04ABF2}">
   <dimension ref="A2:F36"/>
   <sheetViews>
@@ -2844,19 +3666,19 @@
       <c r="B2" s="9"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3187,12 +4009,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8366C458-594F-47C9-BB28-8F5127D7BC61}">
   <dimension ref="A2:K37"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G4" sqref="G4:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
@@ -3212,16 +4034,16 @@
       <c r="F2" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="17" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="23" t="s">
         <v>1</v>
       </c>
@@ -3252,7 +4074,7 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="1" t="s">
@@ -3753,12 +4575,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B54A78-5EEB-4DA7-B2FC-1C3534D4E96C}">
   <dimension ref="A2:L37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
@@ -3779,17 +4601,17 @@
       <c r="G2" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="17" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="23" t="s">
         <v>1</v>
       </c>
@@ -3821,7 +4643,7 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="34">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="1" t="s">
